--- a/public/uploads/import_data/attachment/1/new_excel.xlsx
+++ b/public/uploads/import_data/attachment/1/new_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,8 +13,6 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$17</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t xml:space="preserve">Sr. No.</t>
   </si>
@@ -52,18 +50,12 @@
     <t xml:space="preserve">Shree Harshini</t>
   </si>
   <si>
-    <t xml:space="preserve">started</t>
-  </si>
-  <si>
     <t xml:space="preserve">Search by ISSN</t>
   </si>
   <si>
     <t xml:space="preserve">Kirti</t>
   </si>
   <si>
-    <t xml:space="preserve">working on</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dynamic Reports</t>
   </si>
   <si>
@@ -79,12 +71,12 @@
     <t xml:space="preserve">Acess Details</t>
   </si>
   <si>
-    <t xml:space="preserve">finished</t>
-  </si>
-  <si>
     <t xml:space="preserve">Libray Account</t>
   </si>
   <si>
+    <t xml:space="preserve">Worked on</t>
+  </si>
+  <si>
     <t xml:space="preserve">Integration Partners</t>
   </si>
   <si>
@@ -94,7 +86,13 @@
     <t xml:space="preserve">Upload data</t>
   </si>
   <si>
+    <t xml:space="preserve">Working on</t>
+  </si>
+  <si>
     <t xml:space="preserve">Export data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on</t>
   </si>
   <si>
     <t xml:space="preserve">Contact Us</t>
@@ -251,17 +249,18 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,7 +283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -300,19 +299,17 @@
       <c r="E2" s="5" t="n">
         <v>42692</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>42689</v>
@@ -320,19 +317,17 @@
       <c r="E3" s="5" t="n">
         <v>42691</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>42695</v>
@@ -340,19 +335,17 @@
       <c r="E4" s="5" t="n">
         <v>42699</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>42692</v>
@@ -360,16 +353,13 @@
       <c r="E5" s="1" t="n">
         <v>42696</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>7</v>
@@ -380,16 +370,13 @@
       <c r="E6" s="1" t="n">
         <v>42697</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>7</v>
@@ -400,19 +387,16 @@
       <c r="E7" s="1" t="n">
         <v>42699</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>42688</v>
@@ -421,18 +405,18 @@
         <v>42688</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>42697</v>
@@ -440,19 +424,16 @@
       <c r="E9" s="1" t="n">
         <v>42699</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>42690</v>
@@ -460,19 +441,16 @@
       <c r="E10" s="1" t="n">
         <v>42692</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>42705</v>
@@ -481,18 +459,18 @@
         <v>42706</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>42702</v>
@@ -501,7 +479,7 @@
         <v>42704</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,7 +490,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>42688</v>
@@ -520,11 +498,8 @@
       <c r="E13" s="1" t="n">
         <v>42688</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -540,7 +515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -556,7 +531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -571,9 +546,6 @@
       </c>
       <c r="E16" s="1" t="n">
         <v>42705</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,23 +556,20 @@
         <v>28</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>42689</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>42689</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F17">
     <filterColumn colId="2">
       <customFilters and="true">
-        <customFilter operator="equal" val="Shree Harshini"/>
+        <customFilter operator="equal" val="Kirti"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
